--- a/municipal/ENG/Hotels/Guests/Guria/Lanchkhuti Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Guria/Lanchkhuti Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Guria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Guria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -117,6 +114,9 @@
       </rPr>
       <t xml:space="preserve"> by country and purpose of arrival in Lanchkhuti Municipality  Municipality</t>
     </r>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
 </sst>
 </file>
@@ -342,11 +342,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,11 +372,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -676,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -692,7 +692,7 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
@@ -828,16 +828,16 @@
       <c r="A4" s="38"/>
       <c r="B4" s="40"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -896,14 +896,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="44">
         <v>2010</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -962,7 +962,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <v>1405</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>237</v>
@@ -1184,7 +1184,7 @@
         <v>169</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>2</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1307,22 +1307,22 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>58</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10">
         <v>58</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
         <v>116</v>
@@ -1394,10 +1394,10 @@
         <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1457,21 +1457,21 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33">
         <v>63</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="33">
         <v>26</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="33">
         <v>35</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="E13" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="33">
         <v>2</v>
       </c>
       <c r="G13" s="25"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>2336</v>
@@ -1609,10 +1609,10 @@
         <v>980</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1749,15 +1749,15 @@
         <v>728</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>627</v>
@@ -1769,15 +1769,15 @@
         <v>252</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>171</v>
@@ -1799,15 +1799,15 @@
         <v>115</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>304</v>
@@ -1819,30 +1819,30 @@
         <v>18</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="43">
+        <v>9</v>
+      </c>
+      <c r="B22" s="33">
         <v>152</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="33">
         <v>33</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="33">
         <v>119</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>15</v>
+      <c r="E22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1857,7 +1857,7 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9">
         <v>2546</v>
@@ -1869,15 +1869,15 @@
         <v>253</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1899,15 +1899,15 @@
         <v>24</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>686</v>
@@ -1919,15 +1919,15 @@
         <v>229</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>58</v>
@@ -1949,15 +1949,15 @@
         <v>42</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>508</v>
@@ -1969,30 +1969,30 @@
         <v>67</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="43">
+        <v>9</v>
+      </c>
+      <c r="B31" s="33">
         <v>120</v>
       </c>
-      <c r="C31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="43">
+      <c r="C31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="33">
         <v>120</v>
       </c>
-      <c r="E31" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>15</v>
+      <c r="E31" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,7 +2007,7 @@
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9">
         <v>2615</v>
@@ -2019,15 +2019,15 @@
         <v>612</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2049,15 +2049,15 @@
         <v>399</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>445</v>
@@ -2069,15 +2069,15 @@
         <v>213</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>82</v>
@@ -2099,15 +2099,15 @@
         <v>77</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>242</v>
@@ -2119,30 +2119,30 @@
         <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="43">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33">
         <v>121</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="33">
         <v>7</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="33">
         <v>114</v>
       </c>
-      <c r="E40" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>15</v>
+      <c r="E40" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2157,7 +2157,7 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="9">
         <v>3845</v>
@@ -2169,15 +2169,15 @@
         <v>586</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2199,15 +2199,15 @@
         <v>381</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>631</v>
@@ -2219,15 +2219,15 @@
         <v>205</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>81</v>
@@ -2249,15 +2249,15 @@
         <v>68</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>442</v>
@@ -2269,30 +2269,30 @@
         <v>68</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="43">
+        <v>9</v>
+      </c>
+      <c r="B49" s="33">
         <v>108</v>
       </c>
-      <c r="C49" s="43">
+      <c r="C49" s="33">
         <v>39</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="33">
         <v>69</v>
       </c>
-      <c r="E49" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>15</v>
+      <c r="E49" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9">
         <v>2064</v>
@@ -2319,15 +2319,15 @@
         <v>830</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2349,15 +2349,15 @@
         <v>361</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>74</v>
@@ -2369,15 +2369,15 @@
         <v>53</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>394</v>
@@ -2399,50 +2399,50 @@
         <v>138</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>170</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="10">
         <v>170</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,7 +2457,7 @@
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9">
         <v>2698</v>
@@ -2469,15 +2469,15 @@
         <v>1080</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2499,15 +2499,15 @@
         <v>729</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>689</v>
@@ -2519,15 +2519,15 @@
         <v>351</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>93</v>
@@ -2549,15 +2549,15 @@
         <v>74</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>415</v>
@@ -2569,30 +2569,30 @@
         <v>119</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="43">
+        <v>9</v>
+      </c>
+      <c r="B67" s="33">
         <v>181</v>
       </c>
-      <c r="C67" s="43">
+      <c r="C67" s="33">
         <v>23</v>
       </c>
-      <c r="D67" s="43">
+      <c r="D67" s="33">
         <v>158</v>
       </c>
-      <c r="E67" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>15</v>
+      <c r="E67" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="9">
         <v>3517</v>
@@ -2619,15 +2619,15 @@
         <v>1194</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2649,15 +2649,15 @@
         <v>874</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>1051</v>
@@ -2669,15 +2669,15 @@
         <v>320</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2687,27 +2687,27 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>63</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="10">
         <v>63</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>786</v>
@@ -2719,30 +2719,30 @@
         <v>95</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="43">
+        <v>9</v>
+      </c>
+      <c r="B76" s="33">
         <v>202</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="33">
         <v>40</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="33">
         <v>162</v>
       </c>
-      <c r="E76" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>15</v>
+      <c r="E76" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2757,7 +2757,7 @@
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>2360</v>
@@ -2769,15 +2769,15 @@
         <v>726</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2799,15 +2799,15 @@
         <v>533</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>582</v>
@@ -2819,15 +2819,15 @@
         <v>193</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>108</v>
@@ -2849,15 +2849,15 @@
         <v>43</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>343</v>
@@ -2869,30 +2869,30 @@
         <v>34</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="43">
+        <v>9</v>
+      </c>
+      <c r="B85" s="33">
         <v>131</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="33">
         <v>15</v>
       </c>
-      <c r="D85" s="43">
+      <c r="D85" s="33">
         <v>116</v>
       </c>
-      <c r="E85" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="43" t="s">
-        <v>15</v>
+      <c r="E85" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="9">
         <v>2502</v>
@@ -2919,15 +2919,15 @@
         <v>599</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2949,15 +2949,15 @@
         <v>480</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>527</v>
@@ -2969,15 +2969,15 @@
         <v>119</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>86</v>
@@ -2999,15 +2999,15 @@
         <v>41</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>307</v>
@@ -3016,33 +3016,33 @@
         <v>307</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="43">
+        <v>9</v>
+      </c>
+      <c r="B94" s="33">
         <v>134</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="33">
         <v>56</v>
       </c>
-      <c r="D94" s="43">
+      <c r="D94" s="33">
         <v>78</v>
       </c>
-      <c r="E94" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>15</v>
+      <c r="E94" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3057,7 +3057,7 @@
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9">
         <v>1284</v>
@@ -3069,15 +3069,15 @@
         <v>242</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3099,35 +3099,35 @@
         <v>184</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10">
         <v>58</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" s="10">
         <v>58</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3137,62 +3137,62 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10">
         <v>9</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="10">
         <v>9</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10">
         <v>24</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="10">
         <v>24</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="43">
+        <v>9</v>
+      </c>
+      <c r="B103" s="33">
         <v>25</v>
       </c>
-      <c r="C103" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="43">
+      <c r="C103" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="33">
         <v>25</v>
       </c>
-      <c r="E103" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="43" t="s">
-        <v>15</v>
+      <c r="E103" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="9">
         <v>1099</v>
@@ -3219,15 +3219,15 @@
         <v>138</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3249,15 +3249,15 @@
         <v>12</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>160</v>
@@ -3269,15 +3269,15 @@
         <v>126</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3287,27 +3287,27 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>35</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" s="10">
         <v>35</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>37</v>
@@ -3319,35 +3319,35 @@
         <v>34</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="43">
+        <v>9</v>
+      </c>
+      <c r="B112" s="33">
         <v>88</v>
       </c>
-      <c r="C112" s="43">
+      <c r="C112" s="33">
         <v>31</v>
       </c>
-      <c r="D112" s="43">
+      <c r="D112" s="33">
         <v>57</v>
       </c>
-      <c r="E112" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="43" t="s">
-        <v>15</v>
+      <c r="E112" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3396,12 +3396,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3452,12 +3452,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3508,12 +3508,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3564,12 +3564,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="43"/>
+      <c r="F140" s="43"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3620,12 +3620,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="43"/>
+      <c r="F147" s="43"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3676,12 +3676,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3732,12 +3732,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3788,12 +3788,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3844,12 +3844,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3900,12 +3900,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
@@ -3957,17 +3957,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A175:F175"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A5:F5"/>
@@ -3984,6 +3973,17 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
